--- a/aichan/545680761807967152_2021-07-10_12-00-03.xlsx
+++ b/aichan/545680761807967152_2021-07-10_12-00-03.xlsx
@@ -731,7 +731,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -6244,7 +6244,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -8049,7 +8049,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -8854,7 +8854,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -9068,7 +9068,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9558,7 +9558,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -9633,7 +9633,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -10387,7 +10387,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10620,7 +10620,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10762,7 +10762,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10908,7 +10908,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -11046,7 +11046,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -11410,7 +11410,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -12153,7 +12153,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -12224,7 +12224,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -12378,7 +12378,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -12453,7 +12453,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12528,7 +12528,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13805,7 +13805,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13947,7 +13947,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -14085,7 +14085,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -14299,7 +14299,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -14366,7 +14366,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14644,7 +14644,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -14719,7 +14719,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -15312,7 +15312,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -15458,7 +15458,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15744,7 +15744,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -15902,7 +15902,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -15981,7 +15981,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -16179,7 +16179,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -16313,7 +16313,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -16459,7 +16459,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16534,7 +16534,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -16676,7 +16676,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -16743,7 +16743,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -17384,7 +17384,7 @@
         </is>
       </c>
       <c r="I234" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17819,7 +17819,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -17886,7 +17886,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -17961,7 +17961,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -18190,7 +18190,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -18340,7 +18340,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18482,7 +18482,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18634,7 +18634,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18764,7 +18764,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -19281,7 +19281,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -19360,7 +19360,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -19787,7 +19787,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -20363,7 +20363,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -20426,7 +20426,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -20501,7 +20501,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20702,7 +20702,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -21128,7 +21128,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -21349,7 +21349,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -21730,7 +21730,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21793,7 +21793,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -21868,7 +21868,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -21935,7 +21935,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -22207,7 +22207,7 @@
         </is>
       </c>
       <c r="I301" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J301" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -22349,7 +22349,7 @@
         </is>
       </c>
       <c r="I303" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J303" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22909,7 +22909,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -23051,7 +23051,7 @@
         </is>
       </c>
       <c r="I313" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J313" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -23766,7 +23766,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -23837,7 +23837,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23908,7 +23908,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -24559,7 +24559,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -25111,7 +25111,7 @@
         </is>
       </c>
       <c r="I342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J342" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -25336,7 +25336,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -25567,7 +25567,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25634,7 +25634,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25981,7 +25981,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -26261,7 +26261,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -26328,7 +26328,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -26407,7 +26407,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -26486,7 +26486,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -26694,7 +26694,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26907,7 +26907,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -27045,7 +27045,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -27329,7 +27329,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -27467,7 +27467,7 @@
         </is>
       </c>
       <c r="I375" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J375" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27680,7 +27680,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -27828,7 +27828,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -27897,7 +27897,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27964,7 +27964,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -28033,7 +28033,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -28175,7 +28175,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -28317,7 +28317,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -28384,7 +28384,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -28455,7 +28455,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -28893,7 +28893,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -29031,7 +29031,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -29102,7 +29102,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -29170,7 +29170,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -29474,7 +29474,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -29553,7 +29553,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -29695,7 +29695,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -29896,7 +29896,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -30507,11 +30507,11 @@
         </is>
       </c>
       <c r="I418" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -30653,7 +30653,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -30724,7 +30724,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -30866,7 +30866,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -30929,7 +30929,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -31000,7 +31000,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -31067,7 +31067,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -31497,7 +31497,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -31719,7 +31719,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -31849,7 +31849,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -31920,7 +31920,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -31991,7 +31991,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -32204,7 +32204,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -32413,7 +32413,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -32622,7 +32622,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -32827,7 +32827,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -32894,7 +32894,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -33557,7 +33557,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -33628,7 +33628,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -33695,7 +33695,7 @@
         </is>
       </c>
       <c r="I463" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J463" t="inlineStr">
         <is>
@@ -33912,11 +33912,11 @@
         </is>
       </c>
       <c r="I466" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -34062,7 +34062,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -34212,7 +34212,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -34350,7 +34350,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -34571,7 +34571,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -34638,7 +34638,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -34839,7 +34839,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -35047,11 +35047,11 @@
         </is>
       </c>
       <c r="I482" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -35126,7 +35126,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -35276,7 +35276,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -35418,7 +35418,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -35719,7 +35719,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -35790,7 +35790,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -35932,7 +35932,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -36517,7 +36517,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -36738,11 +36738,11 @@
         </is>
       </c>
       <c r="I505" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -37093,7 +37093,7 @@
         </is>
       </c>
       <c r="I510" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J510" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -37611,7 +37611,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -37678,7 +37678,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -38104,7 +38104,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -38672,7 +38672,7 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -39031,7 +39031,7 @@
         </is>
       </c>
       <c r="I537" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J537" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -39478,7 +39478,7 @@
         </is>
       </c>
       <c r="I543" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J543" t="inlineStr">
         <is>
@@ -39628,7 +39628,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -39987,7 +39987,7 @@
         </is>
       </c>
       <c r="I550" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J550" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         </is>
       </c>
       <c r="I552" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J552" t="inlineStr">
         <is>
@@ -42382,7 +42382,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -42663,7 +42663,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -43089,7 +43089,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -43610,7 +43610,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -43689,7 +43689,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -45014,7 +45014,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
@@ -45156,7 +45156,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -45957,7 +45957,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -46241,7 +46241,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -46392,7 +46392,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -46613,7 +46613,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K641" t="inlineStr">
@@ -47205,7 +47205,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -47910,7 +47910,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K659" t="inlineStr">
@@ -48874,7 +48874,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K672" t="inlineStr">
@@ -49092,7 +49092,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -49829,7 +49829,7 @@
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K685" t="inlineStr">
@@ -50615,7 +50615,7 @@
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K696" t="inlineStr">
@@ -50820,7 +50820,7 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -51246,7 +51246,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K705" t="inlineStr">
@@ -51384,7 +51384,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
@@ -51455,7 +51455,7 @@
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K708" t="inlineStr">
@@ -51811,7 +51811,7 @@
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K713" t="inlineStr">

--- a/aichan/545680761807967152_2021-07-10_12-00-03.xlsx
+++ b/aichan/545680761807967152_2021-07-10_12-00-03.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:35:52</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44396.48324074074</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>4880554854</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:48:03</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44390.78336805556</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -705,10 +717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:31:56</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44389.60550925926</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -784,10 +794,8 @@
           <t>4891179056</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-12 07:55:43</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44389.33035879629</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -855,10 +863,8 @@
           <t>4891179056</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-12 02:56:47</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44389.12276620371</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -930,10 +936,8 @@
           <t>4881008190</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-12 02:55:28</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44389.12185185185</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1005,10 +1009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-12 00:23:49</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44389.01653935185</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
@@ -1076,10 +1078,8 @@
           <t>4889942217</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-11 22:39:17</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44388.94394675926</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1143,10 +1143,8 @@
           <t>4880112451</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-11 16:37:11</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44388.69248842593</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1210,10 +1208,8 @@
           <t>4883146863</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-11 12:47:26</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44388.53293981482</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1275,10 +1271,8 @@
           <t>4883146863</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-11 12:44:16</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44388.53074074074</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1343,10 +1337,8 @@
           <t>4883146863</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-11 12:42:03</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44388.52920138889</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1411,10 +1403,8 @@
           <t>4883146863</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-11 12:21:58</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44388.51525462963</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1479,10 +1469,8 @@
           <t>4883146863</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-11 12:04:06</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44388.50284722223</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1547,10 +1535,8 @@
           <t>4885493316</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:51:20</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44388.45231481481</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1620,10 +1606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-11 06:59:49</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44388.29153935185</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1689,10 +1673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-11 06:59:44</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44388.29148148148</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1756,10 +1738,8 @@
           <t>4880985218</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:54:34</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44388.03789351852</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1823,10 +1803,8 @@
           <t>4880985218</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:51:40</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44388.03587962963</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1902,10 +1880,8 @@
           <t>4880901514</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:40:02</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44388.02780092593</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1973,10 +1949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:28:08</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44388.01953703703</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2040,10 +2014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:21:01</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44388.01459490741</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
@@ -2120,10 +2092,8 @@
           <t>4883683872</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:09:09</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44388.00635416667</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2199,10 +2169,8 @@
           <t>4883632544</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:01:13</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44388.00084490741</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2280,10 +2248,8 @@
           <t>4883630867</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:00:27</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44388.0003125</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2360,10 +2326,8 @@
           <t>4883612086</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:57:04</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44387.99796296296</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2442,10 +2406,8 @@
           <t>4879597527</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:45:42</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44387.94840277778</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2509,10 +2471,8 @@
           <t>4882841362</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:13:53</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44387.92630787037</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2576,10 +2536,8 @@
           <t>4882328772</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:13:35</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44387.88443287037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2639,10 +2597,8 @@
           <t>4879377124</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:45:19</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44387.86480324074</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2714,10 +2670,8 @@
           <t>4882167922</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:43:42</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44387.86368055556</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -2793,10 +2747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:14:41</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44387.84353009259</v>
       </c>
       <c r="I33" t="n">
         <v>14</v>
@@ -2856,10 +2808,8 @@
           <t>4881740006</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:58:27</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44387.83225694444</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2927,10 +2877,8 @@
           <t>4881850960</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:57:53</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44387.83186342593</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3006,10 +2954,8 @@
           <t>4880434602</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:57:38</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44387.83168981481</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3085,10 +3031,8 @@
           <t>4881740006</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:57:01</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44387.83126157407</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3156,10 +3100,8 @@
           <t>4881828515</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:55:22</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44387.83011574074</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3231,10 +3173,8 @@
           <t>4881740006</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:43:31</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44387.82188657407</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3302,10 +3242,8 @@
           <t>4881740006</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:42:35</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44387.82123842592</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3376,10 +3314,8 @@
           <t>4881740006</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:41:39</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44387.82059027778</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3447,10 +3383,8 @@
           <t>4880985218</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:41:18</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44387.82034722222</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
@@ -3514,10 +3448,8 @@
           <t>4881701578</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:37:09</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44387.81746527777</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3585,10 +3517,8 @@
           <t>4881701578</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:36:37</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44387.8170949074</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3656,10 +3586,8 @@
           <t>4881095861</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:36:15</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44387.81684027778</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3727,10 +3655,8 @@
           <t>4881684131</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:34:42</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44387.81576388889</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3798,10 +3724,8 @@
           <t>4880985218</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:30:17</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44387.81269675926</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3865,10 +3789,8 @@
           <t>4880985218</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:29:30</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44387.81215277778</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3936,10 +3858,8 @@
           <t>4881518872</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:27:58</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44387.81108796296</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4011,10 +3931,8 @@
           <t>4880985218</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:25:05</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44387.80908564815</v>
       </c>
       <c r="I50" t="n">
         <v>5</v>
@@ -4078,10 +3996,8 @@
           <t>4881610911</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:22:36</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44387.80736111111</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4141,10 +4057,8 @@
           <t>4880985218</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:14:06</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44387.80145833334</v>
       </c>
       <c r="I52" t="n">
         <v>6</v>
@@ -4208,10 +4122,8 @@
           <t>4881518872</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:09:10</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44387.79803240741</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4279,10 +4191,8 @@
           <t>4881515995</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:07:59</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44387.79721064815</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4350,10 +4260,8 @@
           <t>4881497587</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:06:21</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44387.79607638889</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4421,10 +4329,8 @@
           <t>4881489729</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:05:26</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44387.79543981481</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4492,10 +4398,8 @@
           <t>4881484880</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:05:08</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44387.79523148148</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4563,10 +4467,8 @@
           <t>4879387541</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:46:52</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44387.78254629629</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4638,10 +4540,8 @@
           <t>4880524996</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:42:05</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44387.77922453704</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4717,10 +4617,8 @@
           <t>4881330493</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:41:19</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44387.77869212963</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4796,10 +4694,8 @@
           <t>4879597527</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:24:31</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44387.76702546296</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4875,10 +4771,8 @@
           <t>4880985218</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:21:36</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44387.765</v>
       </c>
       <c r="I62" t="n">
         <v>7</v>
@@ -4954,10 +4848,8 @@
           <t>4880985218</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:21:11</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44387.76471064815</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5025,10 +4917,8 @@
           <t>4880985218</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:10:31</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44387.75730324074</v>
       </c>
       <c r="I64" t="n">
         <v>8</v>
@@ -5104,10 +4994,8 @@
           <t>4879044510</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:09:32</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44387.75662037037</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5173,10 +5061,8 @@
           <t>4881095861</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:06:56</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44387.75481481481</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5244,10 +5130,8 @@
           <t>4881074742</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:05:01</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44387.7534837963</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5315,10 +5199,8 @@
           <t>4881081066</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:04:46</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44387.75331018519</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -5392,10 +5274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:00:51</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44387.75059027778</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5471,10 +5351,8 @@
           <t>4881039745</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:59:54</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44387.74993055555</v>
       </c>
       <c r="I70" t="n">
         <v>12</v>
@@ -5550,10 +5428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:57:19</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44387.74813657408</v>
       </c>
       <c r="I71" t="n">
         <v>6</v>
@@ -5629,10 +5505,8 @@
           <t>4881008190</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:55:06</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44387.74659722222</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5704,10 +5578,8 @@
           <t>4880985218</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:53:31</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44387.74549768519</v>
       </c>
       <c r="I73" t="n">
         <v>9</v>
@@ -5783,10 +5655,8 @@
           <t>4880989192</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:52:41</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44387.74491898148</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5854,10 +5724,8 @@
           <t>4880985218</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:50:49</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44387.74362268519</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5925,10 +5793,8 @@
           <t>4880967423</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:48:10</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44387.74178240741</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5996,10 +5862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:45:02</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44387.73960648148</v>
       </c>
       <c r="I77" t="n">
         <v>6</v>
@@ -6067,10 +5931,8 @@
           <t>4880927174</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:42:16</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44387.73768518519</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6147,10 +6009,8 @@
           <t>4880901514</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:37:12</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44387.73416666667</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6218,10 +6078,8 @@
           <t>4880251612</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:25:58</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44387.72636574074</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6297,10 +6155,8 @@
           <t>4880805175</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:22:01</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44387.72362268518</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6372,10 +6228,8 @@
           <t>4880789062</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:20:52</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44387.72282407407</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6443,10 +6297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:20:14</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44387.72238425926</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6518,10 +6370,8 @@
           <t>4880783821</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:19:26</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44387.7218287037</v>
       </c>
       <c r="I84" t="n">
         <v>2</v>
@@ -6593,10 +6443,8 @@
           <t>4880761620</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:15:18</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44387.71895833333</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6672,10 +6520,8 @@
           <t>4879377124</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:06:51</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44387.71309027778</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6739,10 +6585,8 @@
           <t>4880703464</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:06:11</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44387.71262731482</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -6802,10 +6646,8 @@
           <t>4880676707</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:01:43</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44387.70952546296</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6877,10 +6719,8 @@
           <t>4879597527</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:01:30</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44387.709375</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6949,10 +6789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:56:04</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44387.70560185185</v>
       </c>
       <c r="I90" t="n">
         <v>14</v>
@@ -7020,10 +6858,8 @@
           <t>4880632363</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:53:49</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44387.70403935185</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7083,10 +6919,8 @@
           <t>4880631305</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:53:14</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44387.70363425926</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7158,10 +6992,8 @@
           <t>4880616054</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:50:20</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44387.70162037037</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7233,10 +7065,8 @@
           <t>4880599472</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:48:03</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44387.70003472222</v>
       </c>
       <c r="I94" t="n">
         <v>4</v>
@@ -7308,10 +7138,8 @@
           <t>4880578093</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:44:34</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44387.69761574074</v>
       </c>
       <c r="I95" t="n">
         <v>2</v>
@@ -7383,10 +7211,8 @@
           <t>4880575601</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:43:14</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44387.69668981482</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7458,10 +7284,8 @@
           <t>4879626256</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:42:57</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44387.69649305556</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7533,10 +7357,8 @@
           <t>4880569014</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:42:29</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44387.69616898148</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7608,10 +7430,8 @@
           <t>4880563360</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:41:59</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44387.69582175926</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7683,10 +7503,8 @@
           <t>4880563247</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:41:56</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44387.69578703704</v>
       </c>
       <c r="I100" t="n">
         <v>6</v>
@@ -7750,10 +7568,8 @@
           <t>4880554854</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:40:18</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44387.69465277778</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7817,10 +7633,8 @@
           <t>4880551415</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:38:32</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44387.69342592593</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7880,10 +7694,8 @@
           <t>4880541944</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:36:49</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44387.6922337963</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7955,10 +7767,8 @@
           <t>4880239628</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:36:31</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44387.69202546297</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8027,10 +7837,8 @@
           <t>4880524996</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:35:08</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44387.69106481481</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8102,10 +7910,8 @@
           <t>4880434602</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:32:54</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44387.68951388889</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8185,10 +7991,8 @@
           <t>4879597527</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:32:41</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44387.68936342592</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8252,10 +8056,8 @@
           <t>4880520207</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:32:34</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44387.68928240741</v>
       </c>
       <c r="I108" t="n">
         <v>3</v>
@@ -8315,10 +8117,8 @@
           <t>4880503405</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:30:48</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44387.68805555555</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8386,10 +8186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:30:23</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44387.6877662037</v>
       </c>
       <c r="I110" t="n">
         <v>13</v>
@@ -8457,10 +8255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:30:10</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44387.68761574074</v>
       </c>
       <c r="I111" t="n">
         <v>6</v>
@@ -8536,10 +8332,8 @@
           <t>4880490998</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:27:36</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44387.68583333334</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8607,10 +8401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:22:22</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44387.68219907407</v>
       </c>
       <c r="I113" t="n">
         <v>19</v>
@@ -8686,10 +8478,8 @@
           <t>4880461035</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:21:58</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44387.68192129629</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8761,10 +8551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:19:43</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44387.68035879629</v>
       </c>
       <c r="I115" t="n">
         <v>24</v>
@@ -8836,10 +8624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:19:22</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44387.68011574074</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8907,10 +8693,8 @@
           <t>4880434602</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:18:19</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44387.67938657408</v>
       </c>
       <c r="I117" t="n">
         <v>5</v>
@@ -8986,10 +8770,8 @@
           <t>4880435131</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:16:28</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44387.67810185185</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9049,10 +8831,8 @@
           <t>4879446645</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:15:24</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44387.67736111111</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9121,10 +8901,8 @@
           <t>4880416101</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:13:30</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44387.67604166667</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9192,10 +8970,8 @@
           <t>4880403235</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:11:51</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44387.67489583333</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9259,10 +9035,8 @@
           <t>4880398694</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:11:17</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44387.67450231482</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9331,10 +9105,8 @@
           <t>4880394647</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:10:56</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44387.67425925926</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9398,10 +9170,8 @@
           <t>4880401069</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:10:37</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44387.67403935185</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
@@ -9465,10 +9235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:09:08</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44387.67300925926</v>
       </c>
       <c r="I125" t="n">
         <v>4</v>
@@ -9532,10 +9300,8 @@
           <t>4880382231</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:07:41</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44387.67200231482</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9611,10 +9377,8 @@
           <t>4880380231</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:06:35</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44387.67123842592</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9686,10 +9450,8 @@
           <t>4880373702</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:06:25</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44387.67112268518</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9761,10 +9523,8 @@
           <t>4879662959</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:06:11</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44387.67096064815</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9844,10 +9604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:04:54</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44387.67006944444</v>
       </c>
       <c r="I130" t="n">
         <v>126</v>
@@ -9919,10 +9677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:04:42</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44387.66993055555</v>
       </c>
       <c r="I131" t="n">
         <v>42</v>
@@ -9990,10 +9746,8 @@
           <t>4880361969</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:04:20</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44387.66967592593</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10069,10 +9823,8 @@
           <t>4880366005</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:04:14</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44387.66960648148</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10136,10 +9888,8 @@
           <t>4880361969</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:04:09</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44387.66954861111</v>
       </c>
       <c r="I134" t="n">
         <v>2</v>
@@ -10215,10 +9965,8 @@
           <t>4880349318</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:02:44</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44387.66856481481</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10294,10 +10042,8 @@
           <t>4880353149</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:02:38</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44387.66849537037</v>
       </c>
       <c r="I136" t="n">
         <v>8</v>
@@ -10373,10 +10119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:58:34</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44387.66567129629</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10440,10 +10184,8 @@
           <t>4880331480</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:58:27</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44387.66559027778</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10514,10 +10256,8 @@
           <t>4880330325</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:57:50</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44387.66516203704</v>
       </c>
       <c r="I139" t="n">
         <v>2</v>
@@ -10594,10 +10334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:57:48</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44387.66513888889</v>
       </c>
       <c r="I140" t="n">
         <v>27</v>
@@ -10673,10 +10411,8 @@
           <t>4880323734</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:57:16</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44387.66476851852</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10752,10 +10488,8 @@
           <t>4880322445</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:56:30</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44387.66423611111</v>
       </c>
       <c r="I142" t="n">
         <v>2</v>
@@ -10815,10 +10549,8 @@
           <t>4880239628</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:56:20</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44387.66412037037</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10882,10 +10614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:55:11</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44387.66332175926</v>
       </c>
       <c r="I144" t="n">
         <v>12</v>
@@ -10961,10 +10691,8 @@
           <t>4880313375</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:54:35</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44387.66290509259</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11032,10 +10760,8 @@
           <t>4880292874</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:50:55</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44387.6603587963</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11099,10 +10825,8 @@
           <t>4880297186</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:50:51</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44387.6603125</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11178,10 +10902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:50:23</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44387.65998842593</v>
       </c>
       <c r="I148" t="n">
         <v>2</v>
@@ -11246,10 +10968,8 @@
           <t>4880295729</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:49:59</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44387.65971064815</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11313,10 +11033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:49:51</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44387.65961805556</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11392,10 +11110,8 @@
           <t>4880285828</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:49:40</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44387.65949074074</v>
       </c>
       <c r="I151" t="n">
         <v>2</v>
@@ -11463,10 +11179,8 @@
           <t>4880282311</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:47:56</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44387.65828703704</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11534,10 +11248,8 @@
           <t>4880272579</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:47:44</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44387.65814814815</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11605,10 +11317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:47:06</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44387.65770833333</v>
       </c>
       <c r="I154" t="n">
         <v>43</v>
@@ -11684,10 +11394,8 @@
           <t>4880271435</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:47:04</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44387.65768518519</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11759,10 +11467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:47:00</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44387.65763888889</v>
       </c>
       <c r="I156" t="n">
         <v>16</v>
@@ -11829,10 +11535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:46:16</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44387.65712962963</v>
       </c>
       <c r="I157" t="n">
         <v>13</v>
@@ -11909,10 +11613,8 @@
           <t>4880251612</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:44:37</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44387.6559837963</v>
       </c>
       <c r="I158" t="n">
         <v>2</v>
@@ -11984,10 +11686,8 @@
           <t>4880256091</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:43:54</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44387.65548611111</v>
       </c>
       <c r="I159" t="n">
         <v>2</v>
@@ -12064,10 +11764,8 @@
           <t>4880253315</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:42:43</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44387.65466435185</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12135,10 +11833,8 @@
           <t>4880252217</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:42:06</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44387.65423611111</v>
       </c>
       <c r="I161" t="n">
         <v>15</v>
@@ -12206,10 +11902,8 @@
           <t>4880182282</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:42:02</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44387.65418981481</v>
       </c>
       <c r="I162" t="n">
         <v>11</v>
@@ -12277,10 +11971,8 @@
           <t>4880251612</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:41:45</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44387.65399305556</v>
       </c>
       <c r="I163" t="n">
         <v>3</v>
@@ -12352,10 +12044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:41:19</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44387.65369212963</v>
       </c>
       <c r="I164" t="n">
         <v>4</v>
@@ -12431,10 +12121,8 @@
           <t>4880250778</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:41:15</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44387.65364583334</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12506,10 +12194,8 @@
           <t>4880245526</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:40:54</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44387.65340277777</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12581,10 +12267,8 @@
           <t>4880239628</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:40:34</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44387.6531712963</v>
       </c>
       <c r="I167" t="n">
         <v>10</v>
@@ -12656,10 +12340,8 @@
           <t>4880234347</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:40:11</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44387.65290509259</v>
       </c>
       <c r="I168" t="n">
         <v>9</v>
@@ -12731,10 +12413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:39:40</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44387.6525462963</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12802,10 +12482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:39:03</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44387.65211805556</v>
       </c>
       <c r="I170" t="n">
         <v>15</v>
@@ -12865,10 +12543,8 @@
           <t>4880235863</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:38:26</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44387.65168981482</v>
       </c>
       <c r="I171" t="n">
         <v>24</v>
@@ -12940,10 +12616,8 @@
           <t>4880205725</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:38:08</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44387.65148148148</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13011,10 +12685,8 @@
           <t>4880224627</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:37:45</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44387.65121527778</v>
       </c>
       <c r="I173" t="n">
         <v>2</v>
@@ -13074,10 +12746,8 @@
           <t>4880205725</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:36:25</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44387.65028935186</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13145,10 +12815,8 @@
           <t>4880222047</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:36:19</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44387.65021990741</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13216,10 +12884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:35:55</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44387.64994212963</v>
       </c>
       <c r="I176" t="n">
         <v>6</v>
@@ -13293,10 +12959,8 @@
           <t>4880086463</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:33:38</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44387.64835648148</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13356,10 +13020,8 @@
           <t>4880205725</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:32:43</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44387.64771990741</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13427,10 +13089,8 @@
           <t>4879597527</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:31:35</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44387.64693287037</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13494,10 +13154,8 @@
           <t>4880182282</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:29:49</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44387.64570601852</v>
       </c>
       <c r="I180" t="n">
         <v>30</v>
@@ -13570,10 +13228,8 @@
           <t>4879630430</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:19:06</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44387.63826388889</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13641,10 +13297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:18:38</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44387.63793981481</v>
       </c>
       <c r="I182" t="n">
         <v>30</v>
@@ -13716,10 +13370,8 @@
           <t>4880116900</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:16:29</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44387.63644675926</v>
       </c>
       <c r="I183" t="n">
         <v>5</v>
@@ -13791,10 +13443,8 @@
           <t>4879690633</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:16:27</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44387.63642361111</v>
       </c>
       <c r="I184" t="n">
         <v>3</v>
@@ -13858,10 +13508,8 @@
           <t>4880115438</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:15:39</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44387.63586805556</v>
       </c>
       <c r="I185" t="n">
         <v>18</v>
@@ -13929,10 +13577,8 @@
           <t>4880112451</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:15:10</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44387.63553240741</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14000,10 +13646,8 @@
           <t>4879822927</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:14:39</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44387.63517361111</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14063,10 +13707,8 @@
           <t>4880099792</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:13:35</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44387.63443287037</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14138,10 +13780,8 @@
           <t>4880101327</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:13:17</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44387.63422453704</v>
       </c>
       <c r="I189" t="n">
         <v>25</v>
@@ -14206,10 +13846,8 @@
           <t>4880086463</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:10:31</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44387.63230324074</v>
       </c>
       <c r="I190" t="n">
         <v>6</v>
@@ -14273,10 +13911,8 @@
           <t>4880082962</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:09:30</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44387.63159722222</v>
       </c>
       <c r="I191" t="n">
         <v>7</v>
@@ -14352,10 +13988,8 @@
           <t>4880077880</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:09:05</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44387.63130787037</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14419,10 +14053,8 @@
           <t>4879451778</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:08:34</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44387.63094907408</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14494,10 +14126,8 @@
           <t>4880080997</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:08:21</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44387.63079861111</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14567,10 +14197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:08:06</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44387.630625</v>
       </c>
       <c r="I195" t="n">
         <v>253</v>
@@ -14634,10 +14262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:07:26</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44387.63016203704</v>
       </c>
       <c r="I196" t="n">
         <v>15</v>
@@ -14697,10 +14323,8 @@
           <t>4880066137</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:05:30</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44387.62881944444</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14772,10 +14396,8 @@
           <t>4879788480</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:04:48</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44387.62833333333</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14843,10 +14465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:04:31</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44387.62813657407</v>
       </c>
       <c r="I199" t="n">
         <v>2</v>
@@ -14918,10 +14538,8 @@
           <t>4879788480</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:03:51</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44387.62767361111</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14997,10 +14615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:03:33</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44387.62746527778</v>
       </c>
       <c r="I201" t="n">
         <v>2</v>
@@ -15072,10 +14688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:01:18</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44387.62590277778</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -15151,10 +14765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:01:13</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44387.62584490741</v>
       </c>
       <c r="I203" t="n">
         <v>106</v>
@@ -15214,10 +14826,8 @@
           <t>4880035743</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:59:25</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44387.62459490741</v>
       </c>
       <c r="I204" t="n">
         <v>5</v>
@@ -15286,10 +14896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:59:20</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44387.62453703704</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15365,10 +14973,8 @@
           <t>4880012407</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:56:42</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44387.62270833334</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15436,10 +15042,8 @@
           <t>4880016214</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:56:25</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44387.62251157407</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15511,10 +15115,8 @@
           <t>4880008713</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:55:19</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44387.62174768518</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15578,10 +15180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:54:33</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44387.62121527778</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15650,10 +15250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:53:25</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44387.62042824074</v>
       </c>
       <c r="I210" t="n">
         <v>9</v>
@@ -15718,10 +15316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:53:13</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44387.62028935185</v>
       </c>
       <c r="I211" t="n">
         <v>24</v>
@@ -15797,10 +15393,8 @@
           <t>4878990728</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:52:43</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44387.61994212963</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15876,10 +15470,8 @@
           <t>4879089236</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:51:06</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44387.61881944445</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15955,10 +15547,8 @@
           <t>4879578794</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:50:37</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44387.61848379629</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16034,10 +15624,8 @@
           <t>4879974726</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:50:04</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44387.61810185185</v>
       </c>
       <c r="I215" t="n">
         <v>3</v>
@@ -16106,10 +15694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:49:59</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44387.61804398148</v>
       </c>
       <c r="I216" t="n">
         <v>13</v>
@@ -16169,10 +15755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:48:05</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44387.61672453704</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16232,10 +15816,8 @@
           <t>4879955469</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:44:46</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44387.6144212963</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16299,10 +15881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:44:06</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44387.61395833334</v>
       </c>
       <c r="I219" t="n">
         <v>3</v>
@@ -16366,10 +15946,8 @@
           <t>4879626256</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:43:34</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44387.61358796297</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16433,10 +16011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:43:32</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44387.61356481481</v>
       </c>
       <c r="I221" t="n">
         <v>16</v>
@@ -16512,10 +16088,8 @@
           <t>4879578794</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:43:16</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44387.61337962963</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16587,10 +16161,8 @@
           <t>4879942864</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:43:16</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44387.61337962963</v>
       </c>
       <c r="I223" t="n">
         <v>3</v>
@@ -16654,10 +16226,8 @@
           <t>4879933480</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:41:09</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44387.61190972223</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16729,10 +16299,8 @@
           <t>4879935193</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:40:41</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44387.61158564815</v>
       </c>
       <c r="I225" t="n">
         <v>6</v>
@@ -16796,10 +16364,8 @@
           <t>4879926860</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:39:47</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44387.61096064815</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16867,10 +16433,8 @@
           <t>4879597527</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:39:42</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44387.61090277778</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -16946,10 +16510,8 @@
           <t>4879914271</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:38:19</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44387.60994212963</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17027,10 +16589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:36:47</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44387.60887731481</v>
       </c>
       <c r="I229" t="n">
         <v>20</v>
@@ -17094,10 +16654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:36:31</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44387.60869212963</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17165,10 +16723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:34:21</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44387.6071875</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17228,10 +16784,8 @@
           <t>4879886618</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:32:00</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44387.60555555556</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17295,10 +16849,8 @@
           <t>4879044510</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:31:59</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44387.60554398148</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17366,10 +16918,8 @@
           <t>4879597527</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:31:38</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44387.60530092593</v>
       </c>
       <c r="I234" t="n">
         <v>6</v>
@@ -17441,10 +16991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:31:04</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44387.60490740741</v>
       </c>
       <c r="I235" t="n">
         <v>18</v>
@@ -17512,10 +17060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:30:10</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44387.60428240741</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17583,10 +17129,8 @@
           <t>4879626256</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:29:49</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44387.60403935185</v>
       </c>
       <c r="I237" t="n">
         <v>3</v>
@@ -17646,10 +17190,8 @@
           <t>4879872485</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:29:45</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44387.60399305556</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17726,10 +17268,8 @@
           <t>4879597527</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:27:53</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44387.60269675926</v>
       </c>
       <c r="I239" t="n">
         <v>3</v>
@@ -17793,10 +17333,8 @@
           <t>4879340782</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:26:37</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44387.60181712963</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17872,10 +17410,8 @@
           <t>4879853664</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:26:34</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44387.60178240741</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17939,10 +17475,8 @@
           <t>4879860897</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:26:28</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44387.60171296296</v>
       </c>
       <c r="I242" t="n">
         <v>10</v>
@@ -18014,10 +17548,8 @@
           <t>4879853107</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:26:14</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44387.60155092592</v>
       </c>
       <c r="I243" t="n">
         <v>2</v>
@@ -18085,10 +17617,8 @@
           <t>4879726827</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:26:12</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44387.60152777778</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18164,10 +17694,8 @@
           <t>4879843818</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:25:05</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44387.60075231481</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18243,10 +17771,8 @@
           <t>4879843431</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:24:52</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44387.60060185185</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18322,10 +17848,8 @@
           <t>4879044510</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:22:24</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44387.59888888889</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18393,10 +17917,8 @@
           <t>4879639398</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:21:38</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44387.59835648148</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18464,10 +17986,8 @@
           <t>4879044510</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:20:44</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44387.59773148148</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18535,10 +18055,8 @@
           <t>4879822927</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:20:27</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44387.59753472222</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18610,10 +18128,8 @@
           <t>4879821060</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:19:22</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44387.59678240741</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18687,10 +18203,8 @@
           <t>4879816694</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:19:20</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44387.59675925926</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18750,10 +18264,8 @@
           <t>4879820706</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:19:10</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44387.59664351852</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18817,10 +18329,8 @@
           <t>4879816694</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:18:32</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44387.5962037037</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18896,10 +18406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:18:07</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44387.59591435185</v>
       </c>
       <c r="I255" t="n">
         <v>11</v>
@@ -18975,10 +18483,8 @@
           <t>4879726827</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:17:25</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44387.59542824074</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19046,10 +18552,8 @@
           <t>4879704905</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:16:50</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44387.59502314815</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19113,10 +18617,8 @@
           <t>4879788480</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:16:33</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44387.59482638889</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19184,10 +18686,8 @@
           <t>4879639398</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:16:12</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44387.59458333333</v>
       </c>
       <c r="I259" t="n">
         <v>5</v>
@@ -19255,10 +18755,8 @@
           <t>4879726827</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:15:55</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44387.59438657408</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19334,10 +18832,8 @@
           <t>4879770284</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:15:03</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44387.59378472222</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19413,10 +18909,8 @@
           <t>4879770284</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:14:58</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44387.59372685185</v>
       </c>
       <c r="I262" t="n">
         <v>3</v>
@@ -19484,10 +18978,8 @@
           <t>4879044510</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:14:49</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44387.59362268518</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19552,10 +19044,8 @@
           <t>4879788480</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:14:11</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44387.59318287037</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19631,10 +19121,8 @@
           <t>4879232923</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:14:09</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44387.59315972222</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19698,10 +19186,8 @@
           <t>4879726827</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:13:45</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44387.59288194445</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19769,10 +19255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:13:23</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44387.59262731481</v>
       </c>
       <c r="I267" t="n">
         <v>11</v>
@@ -19840,10 +19324,8 @@
           <t>4879782338</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:13:02</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44387.59238425926</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19915,10 +19397,8 @@
           <t>4879044510</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:13:02</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44387.59238425926</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19986,10 +19466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:12:48</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44387.59222222222</v>
       </c>
       <c r="I270" t="n">
         <v>10</v>
@@ -20065,10 +19543,8 @@
           <t>4879778910</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:12:33</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44387.59204861111</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20148,10 +19624,8 @@
           <t>4879627271</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:11:48</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44387.59152777777</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20215,10 +19689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:11:38</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44387.59141203704</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20278,10 +19750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:11:28</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44387.5912962963</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20349,10 +19819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:11:22</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44387.59122685185</v>
       </c>
       <c r="I275" t="n">
         <v>10</v>
@@ -20416,10 +19884,8 @@
           <t>4879770284</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:09:54</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44387.59020833333</v>
       </c>
       <c r="I276" t="n">
         <v>3</v>
@@ -20479,10 +19945,8 @@
           <t>4879753685</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:08:09</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44387.58899305556</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20554,10 +20018,8 @@
           <t>4879377124</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:08:09</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44387.58899305556</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20617,10 +20079,8 @@
           <t>4879753373</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:07:58</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44387.58886574074</v>
       </c>
       <c r="I279" t="n">
         <v>7</v>
@@ -20688,10 +20148,8 @@
           <t>4879704905</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:07:42</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44387.58868055556</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20755,10 +20213,8 @@
           <t>4879451778</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:07:30</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44387.58854166666</v>
       </c>
       <c r="I281" t="n">
         <v>2</v>
@@ -20822,10 +20278,8 @@
           <t>4879726827</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:07:11</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44387.58832175926</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -20901,10 +20355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:06:39</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44387.58795138889</v>
       </c>
       <c r="I283" t="n">
         <v>21</v>
@@ -20972,10 +20424,8 @@
           <t>4879700287</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:06:27</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44387.5878125</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21043,10 +20493,8 @@
           <t>4879700287</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:05:55</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44387.58744212963</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21114,10 +20562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:05:38</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44387.58724537037</v>
       </c>
       <c r="I286" t="n">
         <v>3</v>
@@ -21181,10 +20627,8 @@
           <t>4879700287</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:04:35</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44387.5865162037</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21252,10 +20696,8 @@
           <t>4879715484</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:04:26</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44387.58641203704</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21331,10 +20773,8 @@
           <t>4879736618</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:04:08</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44387.5862037037</v>
       </c>
       <c r="I289" t="n">
         <v>5</v>
@@ -21402,10 +20842,8 @@
           <t>4879700287</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:03:47</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44387.58596064815</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21477,10 +20915,8 @@
           <t>4879732738</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:03:41</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44387.5858912037</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21552,10 +20988,8 @@
           <t>4879727575</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:03:24</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44387.58569444445</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21632,10 +21066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:03:10</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44387.58553240741</v>
       </c>
       <c r="I293" t="n">
         <v>33</v>
@@ -21711,10 +21143,8 @@
           <t>4879726827</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:03:00</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44387.58541666667</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21783,10 +21213,8 @@
           <t>4879377124</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:02:52</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44387.58532407408</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -21846,10 +21274,8 @@
           <t>4879716513</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:00:18</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44387.58354166667</v>
       </c>
       <c r="I296" t="n">
         <v>7</v>
@@ -21921,10 +21347,8 @@
           <t>4879709338</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:00:09</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44387.5834375</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -21988,10 +21412,8 @@
           <t>4879627271</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:00:02</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44387.58335648148</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22059,10 +21481,8 @@
           <t>4879710758</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:59:55</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44387.58327546297</v>
       </c>
       <c r="I299" t="n">
         <v>2</v>
@@ -22130,10 +21550,8 @@
           <t>4879715484</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:59:47</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44387.58318287037</v>
       </c>
       <c r="I300" t="n">
         <v>5</v>
@@ -22197,10 +21615,8 @@
           <t>4879704905</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:59:28</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44387.58296296297</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22264,10 +21680,8 @@
           <t>4879707281</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:59:01</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44387.58265046297</v>
       </c>
       <c r="I302" t="n">
         <v>5</v>
@@ -22335,10 +21749,8 @@
           <t>4879700287</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:58:18</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44387.58215277778</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22406,10 +21818,8 @@
           <t>4879697717</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:58:15</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44387.58211805556</v>
       </c>
       <c r="I304" t="n">
         <v>7</v>
@@ -22477,10 +21887,8 @@
           <t>4879694845</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:57:42</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44387.58173611111</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22544,10 +21952,8 @@
           <t>4879696645</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:57:42</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44387.58173611111</v>
       </c>
       <c r="I306" t="n">
         <v>11</v>
@@ -22615,10 +22021,8 @@
           <t>4879639398</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:57:32</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44387.58162037037</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22682,10 +22086,8 @@
           <t>4879700287</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:57:08</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44387.5813425926</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22753,10 +22155,8 @@
           <t>4879627271</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:57:07</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44387.58133101852</v>
       </c>
       <c r="I309" t="n">
         <v>5</v>
@@ -22820,10 +22220,8 @@
           <t>4879597527</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:56:53</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44387.58116898148</v>
       </c>
       <c r="I310" t="n">
         <v>11</v>
@@ -22895,10 +22293,8 @@
           <t>4879690633</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:55:23</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44387.58012731482</v>
       </c>
       <c r="I311" t="n">
         <v>2</v>
@@ -22962,10 +22358,8 @@
           <t>4879686303</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:55:08</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44387.5799537037</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23041,10 +22435,8 @@
           <t>4879594690</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:55:03</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44387.57989583333</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23108,10 +22500,8 @@
           <t>4879377124</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:54:47</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44387.57971064815</v>
       </c>
       <c r="I314" t="n">
         <v>3</v>
@@ -23179,10 +22569,8 @@
           <t>4879685416</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:54:41</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44387.5796412037</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23250,10 +22638,8 @@
           <t>4879685235</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:54:36</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44387.57958333333</v>
       </c>
       <c r="I316" t="n">
         <v>3</v>
@@ -23322,10 +22708,8 @@
           <t>4879679045</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:54:31</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44387.57952546296</v>
       </c>
       <c r="I317" t="n">
         <v>2</v>
@@ -23401,10 +22785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:54:16</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44387.57935185185</v>
       </c>
       <c r="I318" t="n">
         <v>28</v>
@@ -23480,10 +22862,8 @@
           <t>4879649183</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:54:04</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44387.57921296296</v>
       </c>
       <c r="I319" t="n">
         <v>3</v>
@@ -23547,10 +22927,8 @@
           <t>4879649183</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:53:52</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44387.57907407408</v>
       </c>
       <c r="I320" t="n">
         <v>3</v>
@@ -23614,10 +22992,8 @@
           <t>4879639398</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:53:22</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44387.57872685185</v>
       </c>
       <c r="I321" t="n">
         <v>2</v>
@@ -23681,10 +23057,8 @@
           <t>4879667907</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:53:03</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44387.57850694445</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23752,10 +23126,8 @@
           <t>4879639398</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:52:38</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44387.57821759259</v>
       </c>
       <c r="I323" t="n">
         <v>3</v>
@@ -23819,10 +23191,8 @@
           <t>4879662959</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:51:07</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44387.57716435185</v>
       </c>
       <c r="I324" t="n">
         <v>5</v>
@@ -23890,10 +23260,8 @@
           <t>4879627271</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:51:07</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44387.57716435185</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -23961,10 +23329,8 @@
           <t>4879626256</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:51:03</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44387.57711805555</v>
       </c>
       <c r="I326" t="n">
         <v>3</v>
@@ -24028,10 +23394,8 @@
           <t>4879649183</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:50:55</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44387.57702546296</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24095,10 +23459,8 @@
           <t>4879653078</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:50:22</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44387.57664351852</v>
       </c>
       <c r="I328" t="n">
         <v>2</v>
@@ -24174,10 +23536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:49:58</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44387.57636574074</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24249,10 +23609,8 @@
           <t>4879627271</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:49:43</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44387.57619212963</v>
       </c>
       <c r="I330" t="n">
         <v>3</v>
@@ -24328,10 +23686,8 @@
           <t>4879644945</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:49:27</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44387.57600694444</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24407,10 +23763,8 @@
           <t>4879639398</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:49:24</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44387.57597222222</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24474,10 +23828,8 @@
           <t>4879626256</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:49:07</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44387.57577546296</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24545,10 +23897,8 @@
           <t>4879649183</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:48:53</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44387.57561342593</v>
       </c>
       <c r="I334" t="n">
         <v>4</v>
@@ -24612,10 +23962,8 @@
           <t>4879627271</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:48:34</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44387.57539351852</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24683,10 +24031,8 @@
           <t>4879639398</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:48:25</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44387.57528935185</v>
       </c>
       <c r="I336" t="n">
         <v>4</v>
@@ -24750,10 +24096,8 @@
           <t>4879627271</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:48:14</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44387.57516203704</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24821,10 +24165,8 @@
           <t>4879461535</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:48:07</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44387.57508101852</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24892,10 +24234,8 @@
           <t>4879641273</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:47:26</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44387.57460648148</v>
       </c>
       <c r="I339" t="n">
         <v>7</v>
@@ -24963,10 +24303,8 @@
           <t>4879634004</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:47:24</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44387.57458333333</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25030,10 +24368,8 @@
           <t>4879646227</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:47:22</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44387.57456018519</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25101,10 +24437,8 @@
           <t>4879634004</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:46:16</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44387.5737962963</v>
       </c>
       <c r="I342" t="n">
         <v>4</v>
@@ -25168,10 +24502,8 @@
           <t>4879633235</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:45:52</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44387.57351851852</v>
       </c>
       <c r="I343" t="n">
         <v>2</v>
@@ -25239,10 +24571,8 @@
           <t>4879627271</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:45:14</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44387.5730787037</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25318,10 +24648,8 @@
           <t>4879627208</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:45:12</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44387.57305555556</v>
       </c>
       <c r="I345" t="n">
         <v>5</v>
@@ -25389,10 +24717,8 @@
           <t>4879578794</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:45:01</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44387.57292824074</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25468,10 +24794,8 @@
           <t>4879631411</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:44:57</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44387.57288194444</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25539,10 +24863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:44:52</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44387.57282407407</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25620,10 +24942,8 @@
           <t>4879626256</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:44:42</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44387.57270833333</v>
       </c>
       <c r="I349" t="n">
         <v>7</v>
@@ -25687,10 +25007,8 @@
           <t>4879626215</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:44:41</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44387.57269675926</v>
       </c>
       <c r="I350" t="n">
         <v>2</v>
@@ -25754,10 +25072,8 @@
           <t>4879630430</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:44:28</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44387.57254629629</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25821,10 +25137,8 @@
           <t>4879625528</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:44:18</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44387.57243055556</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25888,10 +25202,8 @@
           <t>4879613907</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:43:26</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44387.5718287037</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -25958,10 +25270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:43:25</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44387.57181712963</v>
       </c>
       <c r="I354" t="n">
         <v>58</v>
@@ -26034,10 +25344,8 @@
           <t>4879609569</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:43:13</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44387.57167824074</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26101,10 +25409,8 @@
           <t>4879612296</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:42:34</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44387.57122685185</v>
       </c>
       <c r="I356" t="n">
         <v>2</v>
@@ -26180,10 +25486,8 @@
           <t>4879557097</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:41:59</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44387.57082175926</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26247,10 +25551,8 @@
           <t>4879604792</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:41:43</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44387.57063657408</v>
       </c>
       <c r="I358" t="n">
         <v>2</v>
@@ -26314,10 +25616,8 @@
           <t>4879557097</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:40:58</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44387.57011574074</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26381,10 +25681,8 @@
           <t>4879377124</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:40:45</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44387.56996527778</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26460,10 +25758,8 @@
           <t>4879594690</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:40:40</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44387.56990740741</v>
       </c>
       <c r="I361" t="n">
         <v>10</v>
@@ -26539,10 +25835,8 @@
           <t>4879557097</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:40:36</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44387.56986111111</v>
       </c>
       <c r="I362" t="n">
         <v>7</v>
@@ -26610,10 +25904,8 @@
           <t>4879594404</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:40:31</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44387.56980324074</v>
       </c>
       <c r="I363" t="n">
         <v>2</v>
@@ -26677,10 +25969,8 @@
           <t>4879522481</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:40:23</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44387.56971064815</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -26747,10 +26037,8 @@
           <t>4879593612</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:40:07</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44387.56952546296</v>
       </c>
       <c r="I365" t="n">
         <v>6</v>
@@ -26814,10 +26102,8 @@
           <t>4879597527</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:40:04</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44387.56949074074</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -26893,10 +26179,8 @@
           <t>4879597061</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:39:49</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44387.56931712963</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -26960,10 +26244,8 @@
           <t>4879596867</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:39:42</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44387.56923611111</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27031,10 +26313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:38:59</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44387.56873842593</v>
       </c>
       <c r="I369" t="n">
         <v>32</v>
@@ -27098,10 +26378,8 @@
           <t>4879557097</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:38:34</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44387.56844907408</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27165,10 +26443,8 @@
           <t>4879584401</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:38:24</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44387.56833333334</v>
       </c>
       <c r="I371" t="n">
         <v>5</v>
@@ -27244,10 +26520,8 @@
           <t>4879590244</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:38:20</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44387.56828703704</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27315,10 +26589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:38:19</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44387.56827546296</v>
       </c>
       <c r="I373" t="n">
         <v>37</v>
@@ -27382,10 +26654,8 @@
           <t>4879578794</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:37:35</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44387.56776620371</v>
       </c>
       <c r="I374" t="n">
         <v>3</v>
@@ -27457,10 +26727,8 @@
           <t>4879582628</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:37:29</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44387.56769675926</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27524,10 +26792,8 @@
           <t>4879585738</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:37:22</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44387.56761574074</v>
       </c>
       <c r="I376" t="n">
         <v>7</v>
@@ -27587,10 +26853,8 @@
           <t>4879577447</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:36:53</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44387.56728009259</v>
       </c>
       <c r="I377" t="n">
         <v>7</v>
@@ -27654,10 +26918,8 @@
           <t>4879577344</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:36:50</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44387.56724537037</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27733,10 +26995,8 @@
           <t>4879557097</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:36:25</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44387.56695601852</v>
       </c>
       <c r="I379" t="n">
         <v>7</v>
@@ -27804,10 +27064,8 @@
           <t>4879377124</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:35:56</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44387.56662037037</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -27881,10 +27139,8 @@
           <t>4879571897</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:35:28</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44387.5662962963</v>
       </c>
       <c r="I381" t="n">
         <v>4</v>
@@ -27950,10 +27206,8 @@
           <t>4879567876</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:34:58</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44387.56594907407</v>
       </c>
       <c r="I382" t="n">
         <v>3</v>
@@ -28017,10 +27271,8 @@
           <t>4879557097</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:34:53</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44387.5658912037</v>
       </c>
       <c r="I383" t="n">
         <v>2</v>
@@ -28086,10 +27338,8 @@
           <t>4879570382</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:34:44</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44387.56578703703</v>
       </c>
       <c r="I384" t="n">
         <v>3</v>
@@ -28153,10 +27403,8 @@
           <t>4879567027</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:34:30</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44387.565625</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28228,10 +27476,8 @@
           <t>4879566891</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:34:25</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44387.56556712963</v>
       </c>
       <c r="I386" t="n">
         <v>12</v>
@@ -28303,10 +27549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:34:10</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44387.56539351852</v>
       </c>
       <c r="I387" t="n">
         <v>33</v>
@@ -28370,10 +27614,8 @@
           <t>4879557303</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:33:14</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44387.56474537037</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28437,10 +27679,8 @@
           <t>4879557097</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:33:09</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44387.5646875</v>
       </c>
       <c r="I389" t="n">
         <v>15</v>
@@ -28508,10 +27748,8 @@
           <t>4879527504</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:32:52</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44387.56449074074</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28575,10 +27813,8 @@
           <t>4879548973</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:32:33</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44387.56427083333</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28650,10 +27886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:32:25</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44387.56417824074</v>
       </c>
       <c r="I392" t="n">
         <v>31</v>
@@ -28721,10 +27955,8 @@
           <t>4879133057</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:32:21</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44387.56413194445</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -28800,10 +28032,8 @@
           <t>4879469644</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:32:06</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44387.56395833333</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -28871,10 +28101,8 @@
           <t>4879552219</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:31:57</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44387.56385416666</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -28946,10 +28174,8 @@
           <t>4879550617</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:31:06</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44387.56326388889</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29017,10 +28243,8 @@
           <t>4879545487</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:30:47</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44387.56304398148</v>
       </c>
       <c r="I397" t="n">
         <v>11</v>
@@ -29084,10 +28308,8 @@
           <t>4878953906</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:30:38</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44387.56293981482</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29155,10 +28377,8 @@
           <t>4879509987</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:30:28</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44387.56282407408</v>
       </c>
       <c r="I399" t="n">
         <v>5</v>
@@ -29223,10 +28443,8 @@
           <t>4879530927</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:28:29</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44387.56144675926</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29294,10 +28512,8 @@
           <t>4879522481</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:26:53</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44387.56033564815</v>
       </c>
       <c r="I401" t="n">
         <v>4</v>
@@ -29373,10 +28589,8 @@
           <t>4879431029</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:26:13</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44387.55987268518</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29452,10 +28666,8 @@
           <t>4879511934</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:26:03</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44387.55975694444</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29527,10 +28739,8 @@
           <t>4879515739</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:25:53</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44387.5596412037</v>
       </c>
       <c r="I404" t="n">
         <v>4</v>
@@ -29606,10 +28816,8 @@
           <t>4879509987</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:25:36</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44387.55944444444</v>
       </c>
       <c r="I405" t="n">
         <v>16</v>
@@ -29685,10 +28893,8 @@
           <t>4879508349</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:24:46</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44387.55886574074</v>
       </c>
       <c r="I406" t="n">
         <v>5</v>
@@ -29748,10 +28954,8 @@
           <t>4879306110</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:24:27</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44387.55864583333</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -29811,10 +29015,8 @@
           <t>4879044510</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:23:27</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44387.55795138889</v>
       </c>
       <c r="I408" t="n">
         <v>2</v>
@@ -29882,10 +29084,8 @@
           <t>4879306110</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:23:24</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44387.55791666666</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -29949,10 +29149,8 @@
           <t>4879484646</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:22:53</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44387.55755787037</v>
       </c>
       <c r="I410" t="n">
         <v>7</v>
@@ -30020,10 +29218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:22:35</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44387.55734953703</v>
       </c>
       <c r="I411" t="n">
         <v>15</v>
@@ -30083,10 +29279,8 @@
           <t>4879306110</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:21:35</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44387.55665509259</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30146,10 +29340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:20:42</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44387.55604166666</v>
       </c>
       <c r="I413" t="n">
         <v>197</v>
@@ -30217,10 +29409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:20:41</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44387.55603009259</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30292,10 +29482,8 @@
           <t>4879480075</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:20:35</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44387.55596064815</v>
       </c>
       <c r="I415" t="n">
         <v>2</v>
@@ -30355,10 +29543,8 @@
           <t>4879469644</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:20:21</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44387.55579861111</v>
       </c>
       <c r="I416" t="n">
         <v>13</v>
@@ -30426,10 +29612,8 @@
           <t>4879387541</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:20:08</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44387.55564814815</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30501,10 +29685,8 @@
           <t>4879468299</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:19:41</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44387.55533564815</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30564,10 +29746,8 @@
           <t>4879477724</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:19:34</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44387.55525462963</v>
       </c>
       <c r="I419" t="n">
         <v>4</v>
@@ -30635,10 +29815,8 @@
           <t>4879467816</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:19:27</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44387.55517361111</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -30706,10 +29884,8 @@
           <t>4879472128</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:19:17</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44387.55505787037</v>
       </c>
       <c r="I421" t="n">
         <v>15</v>
@@ -30777,10 +29953,8 @@
           <t>4879041536</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:18:53</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44387.55478009259</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -30852,10 +30026,8 @@
           <t>4879361992</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:17:54</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44387.55409722222</v>
       </c>
       <c r="I423" t="n">
         <v>4</v>
@@ -30919,10 +30091,8 @@
           <t>4879306110</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:17:44</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44387.55398148148</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -30982,10 +30152,8 @@
           <t>4879458769</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:17:43</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44387.55396990741</v>
       </c>
       <c r="I425" t="n">
         <v>1</v>
@@ -31053,10 +30221,8 @@
           <t>4879431029</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:17:14</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44387.55363425926</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31120,10 +30286,8 @@
           <t>4879461535</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:16:43</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44387.55327546296</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -31199,10 +30363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:16:38</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44387.55321759259</v>
       </c>
       <c r="I428" t="n">
         <v>1</v>
@@ -31270,10 +30432,8 @@
           <t>4879460973</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:16:29</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44387.55311342593</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31341,10 +30501,8 @@
           <t>4879451778</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:16:28</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44387.55310185185</v>
       </c>
       <c r="I430" t="n">
         <v>40</v>
@@ -31412,10 +30570,8 @@
           <t>4879455759</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:16:15</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44387.55295138889</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31483,10 +30639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:15:55</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44387.55271990741</v>
       </c>
       <c r="I432" t="n">
         <v>35</v>
@@ -31550,10 +30704,8 @@
           <t>4879450686</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:15:54</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44387.55270833334</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -31622,10 +30774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:15:42</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44387.55256944444</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -31697,10 +30847,8 @@
           <t>4879449267</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:15:42</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44387.55256944444</v>
       </c>
       <c r="I435" t="n">
         <v>16</v>
@@ -31772,10 +30920,8 @@
           <t>4879041536</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:15:42</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44387.55256944444</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -31835,10 +30981,8 @@
           <t>4879443883</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:15:19</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44387.55230324074</v>
       </c>
       <c r="I437" t="n">
         <v>2</v>
@@ -31902,10 +31046,8 @@
           <t>4879355135</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:14:38</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44387.5518287037</v>
       </c>
       <c r="I438" t="n">
         <v>2</v>
@@ -31973,10 +31115,8 @@
           <t>4879294289</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:14:35</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44387.55179398148</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32044,10 +31184,8 @@
           <t>4879446645</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:14:34</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44387.5517824074</v>
       </c>
       <c r="I440" t="n">
         <v>22</v>
@@ -32115,10 +31253,8 @@
           <t>4879391323</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:14:27</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44387.55170138889</v>
       </c>
       <c r="I441" t="n">
         <v>4</v>
@@ -32182,10 +31318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:14:25</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44387.55167824074</v>
       </c>
       <c r="I442" t="n">
         <v>4</v>
@@ -32257,10 +31391,8 @@
           <t>4879294289</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:14:18</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44387.55159722222</v>
       </c>
       <c r="I443" t="n">
         <v>2</v>
@@ -32332,10 +31464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:14:10</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44387.55150462963</v>
       </c>
       <c r="I444" t="n">
         <v>1</v>
@@ -32399,10 +31529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:14:08</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44387.55148148148</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -32466,10 +31594,8 @@
           <t>4879041536</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:13:18</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44387.55090277778</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32537,10 +31663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:12:50</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44387.5505787037</v>
       </c>
       <c r="I447" t="n">
         <v>2</v>
@@ -32608,10 +31732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:12:32</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44387.55037037037</v>
       </c>
       <c r="I448" t="n">
         <v>3</v>
@@ -32675,10 +31797,8 @@
           <t>4879431679</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:12:18</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44387.55020833333</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -32738,10 +31858,8 @@
           <t>4879423481</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:12:17</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44387.55019675926</v>
       </c>
       <c r="I450" t="n">
         <v>3</v>
@@ -32805,10 +31923,8 @@
           <t>4879427215</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:12:06</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44387.55006944444</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -32880,10 +31996,8 @@
           <t>4879294289</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:12:03</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44387.55003472222</v>
       </c>
       <c r="I452" t="n">
         <v>6</v>
@@ -32947,10 +32061,8 @@
           <t>4879431029</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:12:02</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44387.55002314815</v>
       </c>
       <c r="I453" t="n">
         <v>3</v>
@@ -33026,10 +32138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:11:51</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44387.54989583333</v>
       </c>
       <c r="I454" t="n">
         <v>34</v>
@@ -33105,10 +32215,8 @@
           <t>4879421182</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:11:09</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44387.54940972223</v>
       </c>
       <c r="I455" t="n">
         <v>11</v>
@@ -33172,10 +32280,8 @@
           <t>4879425123</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:11:06</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44387.549375</v>
       </c>
       <c r="I456" t="n">
         <v>2</v>
@@ -33243,10 +32349,8 @@
           <t>4879418514</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:10:56</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44387.54925925926</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33310,10 +32414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:10:36</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44387.54902777778</v>
       </c>
       <c r="I458" t="n">
         <v>17</v>
@@ -33385,10 +32487,8 @@
           <t>4879133057</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:10:18</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44387.54881944445</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33464,10 +32564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:09:45</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44387.5484375</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33539,10 +32637,8 @@
           <t>4879377124</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:09:35</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44387.54832175926</v>
       </c>
       <c r="I461" t="n">
         <v>5</v>
@@ -33610,10 +32706,8 @@
           <t>4879294289</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:09:02</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44387.54793981482</v>
       </c>
       <c r="I462" t="n">
         <v>1</v>
@@ -33681,10 +32775,8 @@
           <t>4879294289</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:08:46</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44387.54775462963</v>
       </c>
       <c r="I463" t="n">
         <v>7</v>
@@ -33752,10 +32844,8 @@
           <t>4879377124</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:08:42</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44387.54770833333</v>
       </c>
       <c r="I464" t="n">
         <v>13</v>
@@ -33827,10 +32917,8 @@
           <t>4879387541</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:08:01</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44387.54723379629</v>
       </c>
       <c r="I465" t="n">
         <v>4</v>
@@ -33902,10 +32990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:07:33</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44387.54690972222</v>
       </c>
       <c r="I466" t="n">
         <v>11</v>
@@ -33969,10 +33055,8 @@
           <t>4879377124</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:07:10</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44387.54664351852</v>
       </c>
       <c r="I467" t="n">
         <v>12</v>
@@ -34044,10 +33128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:07:06</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44387.54659722222</v>
       </c>
       <c r="I468" t="n">
         <v>2</v>
@@ -34115,10 +33197,8 @@
           <t>4879355135</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:06:57</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44387.54649305555</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34186,10 +33266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:06:33</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44387.54621527778</v>
       </c>
       <c r="I470" t="n">
         <v>3</v>
@@ -34265,10 +33343,8 @@
           <t>4879355135</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:06:33</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44387.54621527778</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34336,10 +33412,8 @@
           <t>4879391323</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:06:20</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44387.54606481481</v>
       </c>
       <c r="I472" t="n">
         <v>10</v>
@@ -34403,10 +33477,8 @@
           <t>4879355135</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:06:18</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44387.54604166667</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34474,10 +33546,8 @@
           <t>4879133057</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:06:04</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44387.54587962963</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34553,10 +33623,8 @@
           <t>4879387541</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:06:03</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44387.54586805555</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -34624,10 +33692,8 @@
           <t>4879294289</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:06:01</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44387.54584490741</v>
       </c>
       <c r="I476" t="n">
         <v>6</v>
@@ -34691,10 +33757,8 @@
           <t>4879386133</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:05:25</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44387.54542824074</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -34758,10 +33822,8 @@
           <t>4879385077</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:04:57</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44387.54510416667</v>
       </c>
       <c r="I478" t="n">
         <v>13</v>
@@ -34829,10 +33891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:04:49</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44387.54501157408</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
@@ -34892,10 +33952,8 @@
           <t>4879378094</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:04:45</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44387.54496527778</v>
       </c>
       <c r="I480" t="n">
         <v>1</v>
@@ -34970,10 +34028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:04:36</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44387.54486111111</v>
       </c>
       <c r="I481" t="n">
         <v>12</v>
@@ -35037,10 +34093,8 @@
           <t>4879377171</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:04:18</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44387.54465277777</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35104,10 +34158,8 @@
           <t>4879377124</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:04:16</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44387.54462962963</v>
       </c>
       <c r="I483" t="n">
         <v>12</v>
@@ -35179,10 +34231,8 @@
           <t>4879377014</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:04:13</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44387.54459490741</v>
       </c>
       <c r="I484" t="n">
         <v>1</v>
@@ -35250,10 +34300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:03:58</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44387.5444212963</v>
       </c>
       <c r="I485" t="n">
         <v>4</v>
@@ -35329,10 +34377,8 @@
           <t>4879355135</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:02:58</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44387.54372685185</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35400,10 +34446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:02:23</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44387.54332175926</v>
       </c>
       <c r="I487" t="n">
         <v>63</v>
@@ -35471,10 +34515,8 @@
           <t>4879355135</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:02:10</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44387.5431712963</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35542,10 +34584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:02:03</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44387.54309027778</v>
       </c>
       <c r="I489" t="n">
         <v>7</v>
@@ -35614,10 +34654,8 @@
           <t>4879362158</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:01:53</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44387.54297453703</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -35693,10 +34731,8 @@
           <t>4879361992</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:01:49</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44387.54292824074</v>
       </c>
       <c r="I491" t="n">
         <v>18</v>
@@ -35772,10 +34808,8 @@
           <t>4879294289</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:01:29</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44387.54269675926</v>
       </c>
       <c r="I492" t="n">
         <v>5</v>
@@ -35843,10 +34877,8 @@
           <t>4879355135</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:01:27</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44387.54267361111</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -35914,10 +34946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:00:57</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44387.54232638889</v>
       </c>
       <c r="I494" t="n">
         <v>9</v>
@@ -35985,10 +35015,8 @@
           <t>4879355135</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:00:39</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44387.54211805556</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36056,10 +35084,8 @@
           <t>4878970680</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:00:30</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44387.54201388889</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36127,10 +35153,8 @@
           <t>4878970680</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:00:14</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44387.5418287037</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36198,10 +35222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:59:50</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44387.54155092593</v>
       </c>
       <c r="I498" t="n">
         <v>5</v>
@@ -36269,10 +35291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:59:24</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44387.54125</v>
       </c>
       <c r="I499" t="n">
         <v>16</v>
@@ -36348,10 +35368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:59:20</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44387.5412037037</v>
       </c>
       <c r="I500" t="n">
         <v>34</v>
@@ -36419,10 +35437,8 @@
           <t>4879341338</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:58:57</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44387.5409375</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36490,10 +35506,8 @@
           <t>4879340782</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:58:43</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44387.54077546296</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36570,10 +35584,8 @@
           <t>4879334835</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:58:19</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44387.54049768519</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -36649,10 +35661,8 @@
           <t>4879332128</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:57:07</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44387.53966435185</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -36728,10 +35738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:56:26</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44387.53918981482</v>
       </c>
       <c r="I505" t="n">
         <v>2</v>
@@ -36795,10 +35803,8 @@
           <t>4879318762</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:55:42</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44387.53868055555</v>
       </c>
       <c r="I506" t="n">
         <v>11</v>
@@ -36862,10 +35868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:54:29</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44387.53783564815</v>
       </c>
       <c r="I507" t="n">
         <v>33</v>
@@ -36941,10 +35945,8 @@
           <t>4879315567</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:54:19</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44387.53771990741</v>
       </c>
       <c r="I508" t="n">
         <v>1</v>
@@ -37016,10 +36018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:54:07</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44387.53758101852</v>
       </c>
       <c r="I509" t="n">
         <v>5</v>
@@ -37083,10 +36083,8 @@
           <t>4879306110</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:52:56</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44387.53675925926</v>
       </c>
       <c r="I510" t="n">
         <v>5</v>
@@ -37150,10 +36148,8 @@
           <t>4879301792</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:52:43</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44387.5366087963</v>
       </c>
       <c r="I511" t="n">
         <v>18</v>
@@ -37225,10 +36221,8 @@
           <t>4879301405</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:52:33</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44387.53649305556</v>
       </c>
       <c r="I512" t="n">
         <v>16</v>
@@ -37304,10 +36298,8 @@
           <t>4879300983</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:52:22</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44387.53636574074</v>
       </c>
       <c r="I513" t="n">
         <v>1</v>
@@ -37384,10 +36376,8 @@
           <t>4879294289</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:52:07</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44387.53619212963</v>
       </c>
       <c r="I514" t="n">
         <v>15</v>
@@ -37455,10 +36445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:51:56</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44387.53606481481</v>
       </c>
       <c r="I515" t="n">
         <v>37</v>
@@ -37522,10 +36510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:51:11</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44387.53554398148</v>
       </c>
       <c r="I516" t="n">
         <v>1</v>
@@ -37593,10 +36579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:51:01</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44387.53542824074</v>
       </c>
       <c r="I517" t="n">
         <v>24</v>
@@ -37664,10 +36648,8 @@
           <t>4879291414</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:50:46</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44387.53525462963</v>
       </c>
       <c r="I518" t="n">
         <v>4</v>
@@ -37731,10 +36713,8 @@
           <t>4879286487</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:50:32</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44387.5350925926</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -37806,10 +36786,8 @@
           <t>4879282528</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:50:09</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44387.53482638889</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -37873,10 +36851,8 @@
           <t>4879282515</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:50:08</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44387.53481481481</v>
       </c>
       <c r="I521" t="n">
         <v>1</v>
@@ -37944,10 +36920,8 @@
           <t>4879278820</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:49:35</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44387.53443287037</v>
       </c>
       <c r="I522" t="n">
         <v>2</v>
@@ -38011,10 +36985,8 @@
           <t>4879274088</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:49:30</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44387.534375</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38090,10 +37062,8 @@
           <t>4879280221</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:49:03</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44387.5340625</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38157,10 +37127,8 @@
           <t>4879272465</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:48:48</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44387.53388888889</v>
       </c>
       <c r="I525" t="n">
         <v>2</v>
@@ -38224,10 +37192,8 @@
           <t>4879276450</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:48:30</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44387.53368055556</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -38299,10 +37265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:48:07</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44387.53341435185</v>
       </c>
       <c r="I527" t="n">
         <v>881</v>
@@ -38374,10 +37338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:46:33</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44387.53232638889</v>
       </c>
       <c r="I528" t="n">
         <v>36</v>
@@ -38449,10 +37411,8 @@
           <t>4878970630</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:45:30</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44387.53159722222</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38520,10 +37480,8 @@
           <t>4879248996</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:45:09</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44387.53135416667</v>
       </c>
       <c r="I530" t="n">
         <v>4</v>
@@ -38587,10 +37545,8 @@
           <t>4879248813</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:45:05</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44387.53130787037</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -38658,10 +37614,8 @@
           <t>4879248298</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:44:52</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44387.53115740741</v>
       </c>
       <c r="I532" t="n">
         <v>15</v>
@@ -38725,10 +37679,8 @@
           <t>4879251218</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:44:47</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44387.53109953704</v>
       </c>
       <c r="I533" t="n">
         <v>10</v>
@@ -38792,10 +37744,8 @@
           <t>4879242905</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:44:37</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44387.5309837963</v>
       </c>
       <c r="I534" t="n">
         <v>4</v>
@@ -38863,10 +37813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:44:16</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44387.53074074074</v>
       </c>
       <c r="I535" t="n">
         <v>14</v>
@@ -38934,10 +37882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:43:54</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44387.53048611111</v>
       </c>
       <c r="I536" t="n">
         <v>4</v>
@@ -39013,10 +37959,8 @@
           <t>4879240780</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:43:39</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44387.5303125</v>
       </c>
       <c r="I537" t="n">
         <v>6</v>
@@ -39088,10 +38032,8 @@
           <t>4879240626</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:43:34</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44387.53025462963</v>
       </c>
       <c r="I538" t="n">
         <v>27</v>
@@ -39163,10 +38105,8 @@
           <t>4879233961</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:43:02</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44387.52988425926</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39238,10 +38178,8 @@
           <t>4879233505</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:42:51</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44387.52975694444</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39313,10 +38251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:42:47</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44387.52971064814</v>
       </c>
       <c r="I541" t="n">
         <v>5</v>
@@ -39380,10 +38316,8 @@
           <t>4879232977</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:42:37</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44387.52959490741</v>
       </c>
       <c r="I542" t="n">
         <v>1</v>
@@ -39456,10 +38390,8 @@
           <t>4879232923</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:42:35</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44387.52957175926</v>
       </c>
       <c r="I543" t="n">
         <v>2</v>
@@ -39535,10 +38467,8 @@
           <t>4879226201</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:41:33</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44387.52885416667</v>
       </c>
       <c r="I544" t="n">
         <v>29</v>
@@ -39614,10 +38544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:40:32</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44387.52814814815</v>
       </c>
       <c r="I545" t="n">
         <v>21</v>
@@ -39681,10 +38609,8 @@
           <t>4879221953</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:40:21</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44387.52802083334</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -39752,10 +38678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:40:08</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44387.52787037037</v>
       </c>
       <c r="I547" t="n">
         <v>52</v>
@@ -39827,10 +38751,8 @@
           <t>4879213045</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:40:06</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44387.52784722222</v>
       </c>
       <c r="I548" t="n">
         <v>15</v>
@@ -39906,10 +38828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:39:45</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44387.52760416667</v>
       </c>
       <c r="I549" t="n">
         <v>2</v>
@@ -39973,10 +38893,8 @@
           <t>4879212039</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:39:40</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44387.5275462963</v>
       </c>
       <c r="I550" t="n">
         <v>1</v>
@@ -40044,10 +38962,8 @@
           <t>4879212038</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:39:40</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44387.5275462963</v>
       </c>
       <c r="I551" t="n">
         <v>19</v>
@@ -40120,10 +39036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:39:31</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44387.52744212963</v>
       </c>
       <c r="I552" t="n">
         <v>7</v>
@@ -40187,10 +39101,8 @@
           <t>4879220052</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:39:30</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44387.52743055556</v>
       </c>
       <c r="I553" t="n">
         <v>21</v>
@@ -40254,10 +39166,8 @@
           <t>4879089236</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:39:13</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44387.5272337963</v>
       </c>
       <c r="I554" t="n">
         <v>1</v>
@@ -40333,10 +39243,8 @@
           <t>4879203976</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:39:00</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44387.52708333333</v>
       </c>
       <c r="I555" t="n">
         <v>5</v>
@@ -40396,10 +39304,8 @@
           <t>4879203864</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:57</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44387.52704861111</v>
       </c>
       <c r="I556" t="n">
         <v>7</v>
@@ -40467,10 +39373,8 @@
           <t>4879203743</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:53</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44387.52700231481</v>
       </c>
       <c r="I557" t="n">
         <v>2</v>
@@ -40538,10 +39442,8 @@
           <t>4879041536</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:27</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44387.52670138889</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -40605,10 +39507,8 @@
           <t>4878990728</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:19</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44387.5266087963</v>
       </c>
       <c r="I559" t="n">
         <v>2</v>
@@ -40684,10 +39584,8 @@
           <t>4879198947</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:17</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44387.52658564815</v>
       </c>
       <c r="I560" t="n">
         <v>1</v>
@@ -40755,10 +39653,8 @@
           <t>4879202407</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:14</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44387.52655092593</v>
       </c>
       <c r="I561" t="n">
         <v>1</v>
@@ -40827,10 +39723,8 @@
           <t>4879198522</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:04</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44387.52643518519</v>
       </c>
       <c r="I562" t="n">
         <v>2</v>
@@ -40898,10 +39792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:37:21</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44387.5259375</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -40977,10 +39869,8 @@
           <t>4879196889</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:37:18</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44387.52590277778</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41044,10 +39934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:37:15</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44387.52586805556</v>
       </c>
       <c r="I565" t="n">
         <v>1</v>
@@ -41115,10 +40003,8 @@
           <t>4879205151</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:37:11</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44387.52582175926</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41194,10 +40080,8 @@
           <t>4878970680</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:36:46</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44387.52553240741</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41261,10 +40145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:36:44</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44387.52550925926</v>
       </c>
       <c r="I568" t="n">
         <v>1</v>
@@ -41341,10 +40223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:36:32</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44387.52537037037</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -41420,10 +40300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:36:29</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44387.52533564815</v>
       </c>
       <c r="I570" t="n">
         <v>1</v>
@@ -41491,10 +40369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:36:18</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44387.52520833333</v>
       </c>
       <c r="I571" t="n">
         <v>2</v>
@@ -41563,10 +40439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:36:11</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44387.52512731482</v>
       </c>
       <c r="I572" t="n">
         <v>6</v>
@@ -41642,10 +40516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:34:54</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44387.52423611111</v>
       </c>
       <c r="I573" t="n">
         <v>1</v>
@@ -41717,10 +40589,8 @@
           <t>4878970630</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:34:19</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44387.52383101852</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -41788,10 +40658,8 @@
           <t>4879172609</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:33:33</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44387.52329861111</v>
       </c>
       <c r="I575" t="n">
         <v>1</v>
@@ -41859,10 +40727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:33:26</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44387.52321759259</v>
       </c>
       <c r="I576" t="n">
         <v>66</v>
@@ -41926,10 +40792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:32:39</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44387.52267361111</v>
       </c>
       <c r="I577" t="n">
         <v>25</v>
@@ -42005,10 +40869,8 @@
           <t>4879044510</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:32:07</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44387.52230324074</v>
       </c>
       <c r="I578" t="n">
         <v>15</v>
@@ -42072,10 +40934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:31:56</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44387.52217592593</v>
       </c>
       <c r="I579" t="n">
         <v>6</v>
@@ -42139,10 +40999,8 @@
           <t>4879154382</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:31:34</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44387.5219212963</v>
       </c>
       <c r="I580" t="n">
         <v>2</v>
@@ -42210,10 +41068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:31:29</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44387.52186342593</v>
       </c>
       <c r="I581" t="n">
         <v>1</v>
@@ -42281,10 +41137,8 @@
           <t>4879041536</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:31:14</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44387.52168981481</v>
       </c>
       <c r="I582" t="n">
         <v>8</v>
@@ -42356,10 +41210,8 @@
           <t>4878953906</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:30:55</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44387.52146990741</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -42435,10 +41287,8 @@
           <t>4879148664</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:30:10</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44387.52094907407</v>
       </c>
       <c r="I584" t="n">
         <v>1</v>
@@ -42502,10 +41352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:29:37</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44387.52056712963</v>
       </c>
       <c r="I585" t="n">
         <v>1</v>
@@ -42573,10 +41421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:29:33</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44387.52052083334</v>
       </c>
       <c r="I586" t="n">
         <v>10</v>
@@ -42636,10 +41482,8 @@
           <t>4879138609</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:55</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44387.52008101852</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -42716,10 +41560,8 @@
           <t>4879138343</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:47</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44387.51998842593</v>
       </c>
       <c r="I588" t="n">
         <v>1</v>
@@ -42795,10 +41637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:46</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44387.51997685185</v>
       </c>
       <c r="I589" t="n">
         <v>13</v>
@@ -42858,10 +41698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:36</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44387.51986111111</v>
       </c>
       <c r="I590" t="n">
         <v>1</v>
@@ -42933,10 +41771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:27</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44387.51975694444</v>
       </c>
       <c r="I591" t="n">
         <v>1</v>
@@ -43004,10 +41840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:08</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44387.51953703703</v>
       </c>
       <c r="I592" t="n">
         <v>2</v>
@@ -43075,10 +41909,8 @@
           <t>4878953906</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:08</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44387.51953703703</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43142,10 +41974,8 @@
           <t>4879141112</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:03</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44387.51947916667</v>
       </c>
       <c r="I594" t="n">
         <v>1</v>
@@ -43221,10 +42051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:50</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44387.5193287037</v>
       </c>
       <c r="I595" t="n">
         <v>1</v>
@@ -43300,10 +42128,8 @@
           <t>4879133104</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:49</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44387.51931712963</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -43375,10 +42201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:47</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44387.51929398148</v>
       </c>
       <c r="I597" t="n">
         <v>1</v>
@@ -43442,10 +42266,8 @@
           <t>4879133057</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:47</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44387.51929398148</v>
       </c>
       <c r="I598" t="n">
         <v>1</v>
@@ -43521,10 +42343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:41</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44387.51922453703</v>
       </c>
       <c r="I599" t="n">
         <v>6</v>
@@ -43596,10 +42416,8 @@
           <t>4879041536</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:29</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44387.51908564815</v>
       </c>
       <c r="I600" t="n">
         <v>1</v>
@@ -43663,10 +42481,8 @@
           <t>4879130165</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:26:33</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44387.5184375</v>
       </c>
       <c r="I601" t="n">
         <v>1</v>
@@ -43742,10 +42558,8 @@
           <t>4879118462</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:48</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44387.51791666666</v>
       </c>
       <c r="I602" t="n">
         <v>2</v>
@@ -43813,10 +42627,8 @@
           <t>4878977823</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:44</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44387.51787037037</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -43892,10 +42704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:49</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44387.51723379629</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -43971,10 +42781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:48</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44387.51722222222</v>
       </c>
       <c r="I605" t="n">
         <v>1</v>
@@ -44034,10 +42842,8 @@
           <t>4879041536</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:59</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44387.51665509259</v>
       </c>
       <c r="I606" t="n">
         <v>29</v>
@@ -44109,10 +42915,8 @@
           <t>4879112061</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:49</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44387.51653935185</v>
       </c>
       <c r="I607" t="n">
         <v>2</v>
@@ -44184,10 +42988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:48</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44387.51652777778</v>
       </c>
       <c r="I608" t="n">
         <v>19</v>
@@ -44263,10 +43065,8 @@
           <t>4879103687</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:44</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44387.51648148148</v>
       </c>
       <c r="I609" t="n">
         <v>6</v>
@@ -44330,10 +43130,8 @@
           <t>4879111260</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:26</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44387.51627314815</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -44406,10 +43204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:14</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44387.51613425926</v>
       </c>
       <c r="I611" t="n">
         <v>28</v>
@@ -44473,10 +43269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:18</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44387.51548611111</v>
       </c>
       <c r="I612" t="n">
         <v>92</v>
@@ -44544,10 +43338,8 @@
           <t>4879098788</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:16</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44387.51546296296</v>
       </c>
       <c r="I613" t="n">
         <v>7</v>
@@ -44615,10 +43407,8 @@
           <t>4879098730</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:14</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44387.51543981482</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -44690,10 +43480,8 @@
           <t>4879044510</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:06</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44387.51534722222</v>
       </c>
       <c r="I615" t="n">
         <v>9</v>
@@ -44757,10 +43545,8 @@
           <t>4879073107</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:04</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44387.51532407408</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -44829,10 +43615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:21:58</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44387.51525462963</v>
       </c>
       <c r="I617" t="n">
         <v>7</v>
@@ -44909,10 +43693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:21:52</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44387.51518518518</v>
       </c>
       <c r="I618" t="n">
         <v>6</v>
@@ -44988,10 +43770,8 @@
           <t>4879089236</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:21:52</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44387.51518518518</v>
       </c>
       <c r="I619" t="n">
         <v>5</v>
@@ -45067,10 +43847,8 @@
           <t>4878971688</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:21:52</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44387.51518518518</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45138,10 +43916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:21:36</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44387.515</v>
       </c>
       <c r="I621" t="n">
         <v>8</v>
@@ -45209,10 +43985,8 @@
           <t>4879091921</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:21:12</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44387.51472222222</v>
       </c>
       <c r="I622" t="n">
         <v>3</v>
@@ -45281,10 +44055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:21:07</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44387.51466435185</v>
       </c>
       <c r="I623" t="n">
         <v>5</v>
@@ -45360,10 +44132,8 @@
           <t>4879095373</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:20:38</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44387.51432870371</v>
       </c>
       <c r="I624" t="n">
         <v>1</v>
@@ -45431,10 +44201,8 @@
           <t>4879086082</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:20:32</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44387.51425925926</v>
       </c>
       <c r="I625" t="n">
         <v>1</v>
@@ -45494,10 +44262,8 @@
           <t>4879084671</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:20:18</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44387.51409722222</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -45573,10 +44339,8 @@
           <t>4879074615</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:19:55</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44387.51383101852</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -45636,10 +44400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:19:41</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44387.51366898148</v>
       </c>
       <c r="I628" t="n">
         <v>12</v>
@@ -45715,10 +44477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:19:33</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44387.51357638889</v>
       </c>
       <c r="I629" t="n">
         <v>1</v>
@@ -45786,10 +44546,8 @@
           <t>4879073107</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:19:17</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44387.51339120371</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -45876,10 +44634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:19:16</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44387.51337962963</v>
       </c>
       <c r="I631" t="n">
         <v>61</v>
@@ -45939,10 +44695,8 @@
           <t>4878970630</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:18:52</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44387.51310185185</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -46010,10 +44764,8 @@
           <t>4879012422</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:18:28</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44387.51282407407</v>
       </c>
       <c r="I633" t="n">
         <v>1</v>
@@ -46077,10 +44829,8 @@
           <t>4879080268</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:18:16</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44387.51268518518</v>
       </c>
       <c r="I634" t="n">
         <v>1</v>
@@ -46144,10 +44894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:18:14</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44387.51266203704</v>
       </c>
       <c r="I635" t="n">
         <v>297</v>
@@ -46219,10 +44967,8 @@
           <t>4879080091</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:18:11</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44387.51262731481</v>
       </c>
       <c r="I636" t="n">
         <v>6</v>
@@ -46294,10 +45040,8 @@
           <t>4879058729</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:17:32</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44387.51217592593</v>
       </c>
       <c r="I637" t="n">
         <v>6</v>
@@ -46366,10 +45110,8 @@
           <t>4879062307</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:16:49</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44387.51167824074</v>
       </c>
       <c r="I638" t="n">
         <v>16</v>
@@ -46445,10 +45187,8 @@
           <t>4878970680</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:16:25</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44387.51140046296</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -46524,10 +45264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:16:20</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44387.5113425926</v>
       </c>
       <c r="I640" t="n">
         <v>1029</v>
@@ -46591,10 +45329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:16:15</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44387.51128472222</v>
       </c>
       <c r="I641" t="n">
         <v>4</v>
@@ -46666,10 +45402,8 @@
           <t>4879041536</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:15:55</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44387.51105324074</v>
       </c>
       <c r="I642" t="n">
         <v>2</v>
@@ -46737,10 +45471,8 @@
           <t>4879044510</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:15:34</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44387.51081018519</v>
       </c>
       <c r="I643" t="n">
         <v>36</v>
@@ -46804,10 +45536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:15:26</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44387.5107175926</v>
       </c>
       <c r="I644" t="n">
         <v>8</v>
@@ -46883,10 +45613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:14:13</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44387.50987268519</v>
       </c>
       <c r="I645" t="n">
         <v>4</v>
@@ -46958,10 +45686,8 @@
           <t>4879041536</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:14:10</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44387.50983796296</v>
       </c>
       <c r="I646" t="n">
         <v>54</v>
@@ -47033,10 +45759,8 @@
           <t>4879040277</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:34</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44387.50942129629</v>
       </c>
       <c r="I647" t="n">
         <v>50</v>
@@ -47112,10 +45836,8 @@
           <t>4879034424</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:17</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44387.50922453704</v>
       </c>
       <c r="I648" t="n">
         <v>1</v>
@@ -47179,10 +45901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:03</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44387.5090625</v>
       </c>
       <c r="I649" t="n">
         <v>4</v>
@@ -47258,10 +45978,8 @@
           <t>4879037157</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:34</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44387.50872685185</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -47331,10 +46049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:32</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44387.5087037037</v>
       </c>
       <c r="I651" t="n">
         <v>2</v>
@@ -47399,10 +46115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:17</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44387.50853009259</v>
       </c>
       <c r="I652" t="n">
         <v>1</v>
@@ -47470,10 +46184,8 @@
           <t>4878970630</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:08</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44387.50842592592</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -47541,10 +46253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:11:56</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44387.50828703704</v>
       </c>
       <c r="I654" t="n">
         <v>1</v>
@@ -47620,10 +46330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:11:48</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44387.50819444445</v>
       </c>
       <c r="I655" t="n">
         <v>8</v>
@@ -47683,10 +46391,8 @@
           <t>4878970630</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:11:19</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44387.5078587963</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -47754,10 +46460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:10:37</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44387.50737268518</v>
       </c>
       <c r="I657" t="n">
         <v>700</v>
@@ -47821,10 +46525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:10:37</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44387.50737268518</v>
       </c>
       <c r="I658" t="n">
         <v>1</v>
@@ -47888,10 +46590,8 @@
           <t>4879013368</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:10:20</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44387.50717592592</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
@@ -47963,10 +46663,8 @@
           <t>4879012422</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:53</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44387.50686342592</v>
       </c>
       <c r="I660" t="n">
         <v>2</v>
@@ -48030,10 +46728,8 @@
           <t>4878995692</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:39</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44387.50670138889</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
@@ -48127,10 +46823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:30</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44387.50659722222</v>
       </c>
       <c r="I662" t="n">
         <v>66</v>
@@ -48190,10 +46884,8 @@
           <t>4879008150</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:47</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44387.50609953704</v>
       </c>
       <c r="I663" t="n">
         <v>1</v>
@@ -48276,10 +46968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:11</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44387.50568287037</v>
       </c>
       <c r="I664" t="n">
         <v>4</v>
@@ -48347,10 +47037,8 @@
           <t>4878970630</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:01</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44387.50556712963</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -48426,10 +47114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:07:07</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44387.50494212963</v>
       </c>
       <c r="I666" t="n">
         <v>36</v>
@@ -48497,10 +47183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:06:56</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44387.50481481481</v>
       </c>
       <c r="I667" t="n">
         <v>26</v>
@@ -48572,10 +47256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:06:49</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44387.5047337963</v>
       </c>
       <c r="I668" t="n">
         <v>1</v>
@@ -48639,10 +47321,8 @@
           <t>4878970630</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:06:49</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44387.5047337963</v>
       </c>
       <c r="I669" t="n">
         <v>1</v>
@@ -48710,10 +47390,8 @@
           <t>4878995692</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:06:49</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44387.5047337963</v>
       </c>
       <c r="I670" t="n">
         <v>1</v>
@@ -48785,10 +47463,8 @@
           <t>4878988699</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:06:18</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44387.504375</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -48856,10 +47532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:06:11</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44387.50429398148</v>
       </c>
       <c r="I672" t="n">
         <v>1</v>
@@ -48927,10 +47601,8 @@
           <t>4878984208</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:06:10</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44387.5042824074</v>
       </c>
       <c r="I673" t="n">
         <v>3</v>
@@ -48999,10 +47671,8 @@
           <t>4878988369</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:06:09</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44387.50427083333</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
@@ -49074,10 +47744,8 @@
           <t>4878977823</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:05:52</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44387.50407407407</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
@@ -49145,10 +47813,8 @@
           <t>4878990728</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:05:50</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44387.50405092593</v>
       </c>
       <c r="I676" t="n">
         <v>2</v>
@@ -49220,10 +47886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:05:43</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44387.5039699074</v>
       </c>
       <c r="I677" t="n">
         <v>2</v>
@@ -49299,10 +47963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:05:33</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44387.50385416667</v>
       </c>
       <c r="I678" t="n">
         <v>1</v>
@@ -49372,10 +48034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:05:24</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44387.50375</v>
       </c>
       <c r="I679" t="n">
         <v>1</v>
@@ -49444,10 +48104,8 @@
           <t>4878970630</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:05:16</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44387.5036574074</v>
       </c>
       <c r="I680" t="n">
         <v>1</v>
@@ -49515,10 +48173,8 @@
           <t>4878982207</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:05:15</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44387.50364583333</v>
       </c>
       <c r="I681" t="n">
         <v>1</v>
@@ -49590,10 +48246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:05:14</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44387.50363425926</v>
       </c>
       <c r="I682" t="n">
         <v>6</v>
@@ -49657,10 +48311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:05:09</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44387.50357638889</v>
       </c>
       <c r="I683" t="n">
         <v>9</v>
@@ -49732,10 +48384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:05:03</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44387.50350694444</v>
       </c>
       <c r="I684" t="n">
         <v>1</v>
@@ -49803,10 +48453,8 @@
           <t>4878977823</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:04:38</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44387.5032175926</v>
       </c>
       <c r="I685" t="n">
         <v>2</v>
@@ -49882,10 +48530,8 @@
           <t>4878977488</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:04:30</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44387.503125</v>
       </c>
       <c r="I686" t="n">
         <v>1</v>
@@ -49953,10 +48599,8 @@
           <t>4878964680</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:04:22</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44387.50303240741</v>
       </c>
       <c r="I687" t="n">
         <v>2</v>
@@ -50024,10 +48668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:04:20</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44387.50300925926</v>
       </c>
       <c r="I688" t="n">
         <v>77</v>
@@ -50091,10 +48733,8 @@
           <t>4878976578</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:04:09</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44387.50288194444</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -50158,10 +48798,8 @@
           <t>4878964680</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:04:00</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44387.50277777778</v>
       </c>
       <c r="I690" t="n">
         <v>2</v>
@@ -50233,10 +48871,8 @@
           <t>4878953906</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:03:44</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44387.50259259259</v>
       </c>
       <c r="I691" t="n">
         <v>11</v>
@@ -50304,10 +48940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:03:30</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44387.50243055556</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
@@ -50379,10 +49013,8 @@
           <t>4878964680</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:03:25</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44387.50237268519</v>
       </c>
       <c r="I693" t="n">
         <v>5</v>
@@ -50450,10 +49082,8 @@
           <t>4878971688</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:03:15</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44387.50225694444</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
@@ -50521,10 +49151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:03:10</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44387.50219907407</v>
       </c>
       <c r="I695" t="n">
         <v>2</v>
@@ -50600,10 +49228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:03:06</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44387.50215277778</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
@@ -50668,10 +49294,8 @@
           <t>4878953906</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:03:02</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44387.50210648148</v>
       </c>
       <c r="I697" t="n">
         <v>1</v>
@@ -50739,10 +49363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:03:01</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44387.50209490741</v>
       </c>
       <c r="I698" t="n">
         <v>2</v>
@@ -50806,10 +49428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:02:56</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44387.50203703704</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
@@ -50873,10 +49493,8 @@
           <t>4878970680</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:02:51</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44387.50197916666</v>
       </c>
       <c r="I700" t="n">
         <v>2</v>
@@ -50952,10 +49570,8 @@
           <t>4878970630</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:02:49</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44387.50195601852</v>
       </c>
       <c r="I701" t="n">
         <v>5</v>
@@ -51023,10 +49639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:02:40</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44387.50185185186</v>
       </c>
       <c r="I702" t="n">
         <v>145</v>
@@ -51094,10 +49708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:02:26</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44387.50168981482</v>
       </c>
       <c r="I703" t="n">
         <v>1</v>
@@ -51157,10 +49769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:02:17</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44387.50158564815</v>
       </c>
       <c r="I704" t="n">
         <v>23</v>
@@ -51228,10 +49838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:02:08</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44387.50148148148</v>
       </c>
       <c r="I705" t="n">
         <v>33</v>
@@ -51299,10 +49907,8 @@
           <t>4878954683</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:59</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44387.50137731482</v>
       </c>
       <c r="I706" t="n">
         <v>1</v>
@@ -51370,10 +49976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:57</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44387.50135416666</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
@@ -51437,10 +50041,8 @@
           <t>4878960256</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:49</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44387.50126157407</v>
       </c>
       <c r="I708" t="n">
         <v>1</v>
@@ -51508,10 +50110,8 @@
           <t>4878954197</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:47</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44387.50123842592</v>
       </c>
       <c r="I709" t="n">
         <v>1</v>
@@ -51583,10 +50183,8 @@
           <t>4878953906</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:40</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44387.50115740741</v>
       </c>
       <c r="I710" t="n">
         <v>10</v>
@@ -51651,10 +50249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:24</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44387.50097222222</v>
       </c>
       <c r="I711" t="n">
         <v>10</v>
@@ -51722,10 +50318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:21</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44387.5009375</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
@@ -51789,10 +50383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:12</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44387.50083333333</v>
       </c>
       <c r="I713" t="n">
         <v>3</v>
@@ -51864,10 +50456,8 @@
           <t>4878956269</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:11</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44387.50082175926</v>
       </c>
       <c r="I714" t="n">
         <v>0</v>
@@ -51939,10 +50529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:03</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44387.50072916667</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
@@ -52010,10 +50598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:01:00</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44387.50069444445</v>
       </c>
       <c r="I716" t="n">
         <v>703</v>
@@ -52081,10 +50667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:59</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44387.50068287037</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
@@ -52160,10 +50744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:41</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44387.50047453704</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
@@ -52227,10 +50809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:40</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44387.50046296296</v>
       </c>
       <c r="I719" t="n">
         <v>1</v>
@@ -52294,10 +50874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:33</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44387.50038194445</v>
       </c>
       <c r="I720" t="n">
         <v>7</v>
@@ -52373,10 +50951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:32</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44387.50037037037</v>
       </c>
       <c r="I721" t="n">
         <v>4</v>
@@ -52444,10 +51020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:25</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44387.50028935185</v>
       </c>
       <c r="I722" t="n">
         <v>3</v>
@@ -52523,10 +51097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:25</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44387.50028935185</v>
       </c>
       <c r="I723" t="n">
         <v>2</v>
@@ -52598,10 +51170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:22</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44387.50025462963</v>
       </c>
       <c r="I724" t="n">
         <v>2</v>
@@ -52669,10 +51239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:00:19</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44387.50021990741</v>
       </c>
       <c r="I725" t="n">
         <v>49</v>
